--- a/biology/Zoologie/Gallaselle/Gallaselle.xlsx
+++ b/biology/Zoologie/Gallaselle/Gallaselle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gallasellus heilyi
 La Gallaselle (Gallasellus heilyi) est une espèce de crustacés isopodes de la famille des Asellidae (classe des Malacostraca), qui vit dans les eaux douces souterraines (stygofaunes).
@@ -512,11 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit crustacé a été découvert en 1955 dans une rivière souterraine du sud du département des Deux-Sèvres, à Bataillé, commune de Gournay-Loizé, par Gabriel Heily, spéléologue poitevin et technicien CNRS au laboratoire de Biologie animale de l'université de Poitiers.
-L'animal est décrit en 1956 par le professeur Jean-Jacques Legrand, directeur du même laboratoire ; il est dénommé alors Asellus heilyi[2].
-Les études conduites au cours des années 1970 par deux chercheurs de l'université de Dijon, Jean-Paul Henry et Guy Magniez, la localisent à Sompt dans la résurgence de la rivière souterraine de Bataillé (Deux-Sèvres). Ils créent le genre Gallasellus (étymologiquement, « Aselle de Gaule »), tout en conservant le nom d'espèce heilyi[3].
+L'animal est décrit en 1956 par le professeur Jean-Jacques Legrand, directeur du même laboratoire ; il est dénommé alors Asellus heilyi.
+Les études conduites au cours des années 1970 par deux chercheurs de l'université de Dijon, Jean-Paul Henry et Guy Magniez, la localisent à Sompt dans la résurgence de la rivière souterraine de Bataillé (Deux-Sèvres). Ils créent le genre Gallasellus (étymologiquement, « Aselle de Gaule »), tout en conservant le nom d'espèce heilyi.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Gallaselle atteint à l’âge adulte une taille de l’ordre de 5 mm de long.
 </t>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’habitat de la Gallaselle est souterrain, dans les nappes phréatiques et leurs émergences. Elle a été identifiée dans des rivières souterraines, des puits et des sources.
 </t>
@@ -607,14 +625,16 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L’espèce n’est connue à ce jour que sur moins d’une dizaine de sites et parait endémique au Centre-ouest de la France et même en Poitou-Charentes à l’exception d’une station en limite est du Poitou (Mérigny).
 Les gallaselles sont présentes dans quatre bassins versants : Charente, Sèvre Niortaise, Seudre et Loire.
-Les plus à l’ouest ont été identifiées dans un puits de Saint-Denis-d'Oléron (Charente-Maritime) et les plus l’est dans une source à Mérigny, commune située dans le département de l'Indre, en région Centre-Val de Loire, sur le bord de l'Anglin, sous-affluent de la Loire par la Gartempe, la Creuse et la Vienne[2],[4].
-Des études génétiques avec séquençage de l’ADN ont montré[5] :
+Les plus à l’ouest ont été identifiées dans un puits de Saint-Denis-d'Oléron (Charente-Maritime) et les plus l’est dans une source à Mérigny, commune située dans le département de l'Indre, en région Centre-Val de Loire, sur le bord de l'Anglin, sous-affluent de la Loire par la Gartempe, la Creuse et la Vienne,.
+Des études génétiques avec séquençage de l’ADN ont montré :
 la proximité phylogénétique des gallaselles du centre-ouest de la France avec des populations américaines d'Asellidae. Cette proximité confirme leur origine géographique commune et leur différenciation lors de l’ouverture de l’Atlantique nord qui a commencé il y a environ 100 millions d’années au début du Crétacé supérieur;
-des différences au sein des populations endémiques de Poitou-Charentes qui révèlent l'existence d'au moins trois espèces cryptiques (c’est-à-dire morphologiquement identiques), ce qui s'expliquerait par une nouvelle phase de spéciation résultant d'un isolement géographique partiel ou total consécutif à des variations climatiques génératrices d'assèchements plus ou moins prolongés entre plusieurs sous-bassins versants : celui de la Boutonne, celui de la Sèvre Niortaise, et celui de l'Anglin[2].</t>
+des différences au sein des populations endémiques de Poitou-Charentes qui révèlent l'existence d'au moins trois espèces cryptiques (c’est-à-dire morphologiquement identiques), ce qui s'expliquerait par une nouvelle phase de spéciation résultant d'un isolement géographique partiel ou total consécutif à des variations climatiques génératrices d'assèchements plus ou moins prolongés entre plusieurs sous-bassins versants : celui de la Boutonne, celui de la Sèvre Niortaise, et celui de l'Anglin.</t>
         </is>
       </c>
     </row>
@@ -642,10 +662,12 @@
           <t>Statut et menace</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le statut de Gallasellus heilyi n’a pas encore été évalué sur la liste rouge des espèces menacées (Liste rouge de l'UICN)[6].
-Elle pourrait être intégrée à cette liste à l’instar d’autres Asellidae[7],[8],[9],[10].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le statut de Gallasellus heilyi n’a pas encore été évalué sur la liste rouge des espèces menacées (Liste rouge de l'UICN).
+Elle pourrait être intégrée à cette liste à l’instar d’autres Asellidae.
 </t>
         </is>
       </c>
